--- a/teaching/traditional_assets/database/data/estonia/estonia_furn_home_furnishings.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_furn_home_furnishings.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0576</v>
+        <v>-0.0989</v>
       </c>
       <c r="G2">
-        <v>0.004879518072289157</v>
+        <v>-0.002462686567164179</v>
       </c>
       <c r="H2">
-        <v>0.004879518072289157</v>
+        <v>-0.002462686567164179</v>
       </c>
       <c r="I2">
-        <v>-0.04280334521181764</v>
+        <v>-0.01902985074626866</v>
       </c>
       <c r="J2">
-        <v>-0.04280334521181764</v>
+        <v>-0.01902985074626866</v>
       </c>
       <c r="K2">
-        <v>-1.86</v>
+        <v>-0.272</v>
       </c>
       <c r="L2">
-        <v>-0.1120481927710843</v>
+        <v>-0.02029850746268657</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.048</v>
+        <v>0.005</v>
       </c>
       <c r="V2">
-        <v>0.02318840579710145</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="W2">
-        <v>-0.4881889763779528</v>
+        <v>-0.1554285714285714</v>
       </c>
       <c r="X2">
-        <v>0.1976890806222739</v>
+        <v>0.1584895902618158</v>
       </c>
       <c r="Y2">
-        <v>-0.6858780570002266</v>
+        <v>-0.3139181616903872</v>
       </c>
       <c r="Z2">
-        <v>1.72491230476202</v>
+        <v>1.99345432906873</v>
       </c>
       <c r="AA2">
-        <v>-0.07383201684084072</v>
+        <v>-0.03793513835168105</v>
       </c>
       <c r="AB2">
-        <v>0.07920732481747408</v>
+        <v>0.06818970680525233</v>
       </c>
       <c r="AC2">
-        <v>-0.1530393416583148</v>
+        <v>-0.1061248451569334</v>
       </c>
       <c r="AD2">
-        <v>5.02</v>
+        <v>5.26</v>
       </c>
       <c r="AE2">
-        <v>0.1826776525808647</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.202677652580864</v>
+        <v>5.26</v>
       </c>
       <c r="AG2">
-        <v>5.154677652580864</v>
+        <v>5.255</v>
       </c>
       <c r="AH2">
-        <v>0.7153730580558021</v>
+        <v>0.6795865633074935</v>
       </c>
       <c r="AI2">
-        <v>0.7482984128639428</v>
+        <v>0.7601156069364161</v>
       </c>
       <c r="AJ2">
-        <v>0.7134820265288189</v>
+        <v>0.6793794440853265</v>
       </c>
       <c r="AK2">
-        <v>0.7465486315141915</v>
+        <v>0.759942154736081</v>
       </c>
       <c r="AL2">
-        <v>1.35</v>
+        <v>0.244</v>
       </c>
       <c r="AM2">
-        <v>1.35</v>
+        <v>0.244</v>
       </c>
       <c r="AN2">
-        <v>116.7441860465116</v>
+        <v>10.84536082474227</v>
       </c>
       <c r="AO2">
-        <v>-0.6399999999999999</v>
+        <v>-1.045081967213115</v>
       </c>
       <c r="AP2">
-        <v>119.8762244786247</v>
+        <v>10.83505154639175</v>
       </c>
       <c r="AQ2">
-        <v>-0.6399999999999999</v>
+        <v>-1.045081967213115</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0576</v>
+        <v>-0.0989</v>
       </c>
       <c r="G3">
-        <v>0.004879518072289157</v>
+        <v>-0.002462686567164179</v>
       </c>
       <c r="H3">
-        <v>0.004879518072289157</v>
+        <v>-0.002462686567164179</v>
       </c>
       <c r="I3">
-        <v>-0.04280334521181764</v>
+        <v>-0.01902985074626866</v>
       </c>
       <c r="J3">
-        <v>-0.04280334521181764</v>
+        <v>-0.01902985074626866</v>
       </c>
       <c r="K3">
-        <v>-1.86</v>
+        <v>-0.272</v>
       </c>
       <c r="L3">
-        <v>-0.1120481927710843</v>
+        <v>-0.02029850746268657</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.048</v>
+        <v>0.005</v>
       </c>
       <c r="V3">
-        <v>0.02318840579710145</v>
+        <v>0.002016129032258064</v>
       </c>
       <c r="W3">
-        <v>-0.4881889763779528</v>
+        <v>-0.1554285714285714</v>
       </c>
       <c r="X3">
-        <v>0.1976890806222739</v>
+        <v>0.1584895902618158</v>
       </c>
       <c r="Y3">
-        <v>-0.6858780570002266</v>
+        <v>-0.3139181616903872</v>
       </c>
       <c r="Z3">
-        <v>1.72491230476202</v>
+        <v>1.99345432906873</v>
       </c>
       <c r="AA3">
-        <v>-0.07383201684084072</v>
+        <v>-0.03793513835168105</v>
       </c>
       <c r="AB3">
-        <v>0.07920732481747408</v>
+        <v>0.06818970680525233</v>
       </c>
       <c r="AC3">
-        <v>-0.1530393416583148</v>
+        <v>-0.1061248451569334</v>
       </c>
       <c r="AD3">
-        <v>5.02</v>
+        <v>5.26</v>
       </c>
       <c r="AE3">
-        <v>0.1826776525808647</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.202677652580864</v>
+        <v>5.26</v>
       </c>
       <c r="AG3">
-        <v>5.154677652580864</v>
+        <v>5.255</v>
       </c>
       <c r="AH3">
-        <v>0.7153730580558021</v>
+        <v>0.6795865633074935</v>
       </c>
       <c r="AI3">
-        <v>0.7482984128639428</v>
+        <v>0.7601156069364161</v>
       </c>
       <c r="AJ3">
-        <v>0.7134820265288189</v>
+        <v>0.6793794440853265</v>
       </c>
       <c r="AK3">
-        <v>0.7465486315141915</v>
+        <v>0.759942154736081</v>
       </c>
       <c r="AL3">
-        <v>1.35</v>
+        <v>0.244</v>
       </c>
       <c r="AM3">
-        <v>1.35</v>
+        <v>0.244</v>
       </c>
       <c r="AN3">
-        <v>116.7441860465116</v>
+        <v>10.84536082474227</v>
       </c>
       <c r="AO3">
-        <v>-0.6399999999999999</v>
+        <v>-1.045081967213115</v>
       </c>
       <c r="AP3">
-        <v>119.8762244786247</v>
+        <v>10.83505154639175</v>
       </c>
       <c r="AQ3">
-        <v>-0.6399999999999999</v>
+        <v>-1.045081967213115</v>
       </c>
     </row>
   </sheetData>
